--- a/data/trans_orig/P1425-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{684547B1-E438-4701-B7D2-BF74314EF800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1223522B-4F4E-4B8D-B8BB-877A8C76CEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E7F45D6-5738-4522-8007-DAE085D704D4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A628378-0C14-455F-98E6-E1199DB05546}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="306">
   <si>
     <t>Población con diagnóstico de otros problemas mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -92,828 +92,831 @@
     <t>Si</t>
   </si>
   <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>98,69%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
     <t>Población con diagnóstico de otros problemas mentales en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
@@ -927,15 +930,6 @@
   </si>
   <si>
     <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -1374,7 +1368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37FBB30-3C1B-409D-8EEA-653D69903A39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC98940-B173-486B-A7DD-EAC0AF526662}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1585,13 +1579,13 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>498</v>
@@ -1600,13 +1594,13 @@
         <v>493112</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H6" s="7">
         <v>486</v>
@@ -1615,13 +1609,13 @@
         <v>464527</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>984</v>
@@ -1630,13 +1624,13 @@
         <v>957639</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,13 +1645,13 @@
         <v>494064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>489</v>
@@ -1666,13 +1660,13 @@
         <v>467489</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>988</v>
@@ -1681,18 +1675,18 @@
         <v>961553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1710,37 +1704,37 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,13 +1749,13 @@
         <v>4799</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -1770,13 +1764,13 @@
         <v>4535</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -1785,19 +1779,19 @@
         <v>9334</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>698</v>
@@ -1806,13 +1800,13 @@
         <v>730690</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>587</v>
@@ -1821,13 +1815,13 @@
         <v>620959</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M10" s="7">
         <v>1285</v>
@@ -1836,13 +1830,13 @@
         <v>1351648</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,13 +1851,13 @@
         <v>735489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -1872,13 +1866,13 @@
         <v>625494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -1887,18 +1881,18 @@
         <v>1360982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1916,7 +1910,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1931,7 +1925,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1946,7 +1940,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,13 +1955,13 @@
         <v>9233</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1976,13 +1970,13 @@
         <v>4001</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -1991,19 +1985,19 @@
         <v>13234</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>605</v>
@@ -2012,13 +2006,13 @@
         <v>629435</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>654</v>
@@ -2027,13 +2021,13 @@
         <v>685743</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M14" s="7">
         <v>1259</v>
@@ -2063,13 +2057,13 @@
         <v>638668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15" s="7">
         <v>658</v>
@@ -2078,13 +2072,13 @@
         <v>689744</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M15" s="7">
         <v>1271</v>
@@ -2093,13 +2087,13 @@
         <v>1328412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,10 +2164,10 @@
         <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2182,13 +2176,13 @@
         <v>4756</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -2197,19 +2191,19 @@
         <v>9909</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>479</v>
@@ -2218,13 +2212,13 @@
         <v>513994</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>497</v>
@@ -2233,13 +2227,13 @@
         <v>510886</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>976</v>
@@ -2248,13 +2242,13 @@
         <v>1024880</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,13 +2263,13 @@
         <v>519147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="7">
         <v>502</v>
@@ -2284,13 +2278,13 @@
         <v>515642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M19" s="7">
         <v>986</v>
@@ -2299,18 +2293,18 @@
         <v>1034789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2328,7 +2322,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2343,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2358,7 +2352,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2367,13 @@
         <v>6898</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2388,13 +2382,13 @@
         <v>4759</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -2403,19 +2397,19 @@
         <v>11657</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
         <v>385</v>
@@ -2424,13 +2418,13 @@
         <v>379812</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>391</v>
@@ -2439,13 +2433,13 @@
         <v>399227</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>776</v>
@@ -2454,13 +2448,13 @@
         <v>779039</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2469,13 @@
         <v>386710</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H23" s="7">
         <v>396</v>
@@ -2490,13 +2484,13 @@
         <v>403986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M23" s="7">
         <v>788</v>
@@ -2505,18 +2499,18 @@
         <v>790696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2534,7 +2528,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2549,7 +2543,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2564,7 +2558,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2573,13 @@
         <v>13697</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -2594,13 +2588,13 @@
         <v>15835</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -2609,19 +2603,19 @@
         <v>29532</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>508</v>
@@ -2630,7 +2624,7 @@
         <v>488769</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>124</v>
@@ -2681,13 +2675,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -2696,13 +2690,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -2711,13 +2705,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,19 +2809,19 @@
         <v>77580</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
         <v>3173</v>
@@ -2836,13 +2830,13 @@
         <v>3235812</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H30" s="7">
         <v>3261</v>
@@ -2851,28 +2845,28 @@
         <v>3342350</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M30" s="7">
         <v>6434</v>
       </c>
       <c r="N30" s="7">
-        <v>6578160</v>
+        <v>6578161</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2881,13 @@
         <v>3276544</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H31" s="7">
         <v>3297</v>
@@ -2902,33 +2896,33 @@
         <v>3379198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M31" s="7">
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2950,7 +2944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BD540E-F6FC-453E-A11F-1F0893A45A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF113F6-6DD3-403E-BC3A-1E0DF1592552}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2967,7 +2961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3080,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3095,7 +3089,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3110,7 +3104,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,28 +3119,28 @@
         <v>2808</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3155,19 +3149,19 @@
         <v>2808</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>443</v>
@@ -3176,13 +3170,13 @@
         <v>451338</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>421</v>
@@ -3191,13 +3185,13 @@
         <v>430230</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>864</v>
@@ -3206,13 +3200,13 @@
         <v>881568</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3221,13 @@
         <v>454146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -3242,13 +3236,13 @@
         <v>430230</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>867</v>
@@ -3257,18 +3251,18 @@
         <v>884376</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3286,7 +3280,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3301,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3316,7 +3310,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,13 +3325,13 @@
         <v>2913</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3346,13 +3340,13 @@
         <v>988</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -3361,19 +3355,19 @@
         <v>3900</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>664</v>
@@ -3382,13 +3376,13 @@
         <v>684174</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>570</v>
@@ -3397,13 +3391,13 @@
         <v>609267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
         <v>1234</v>
@@ -3412,13 +3406,13 @@
         <v>1293442</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3427,13 @@
         <v>687087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7">
         <v>571</v>
@@ -3448,13 +3442,13 @@
         <v>610255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M11" s="7">
         <v>1238</v>
@@ -3463,18 +3457,18 @@
         <v>1297342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3492,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3507,7 +3501,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3522,7 +3516,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3531,13 @@
         <v>5808</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3555,10 +3549,10 @@
         <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3567,19 +3561,19 @@
         <v>12193</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>646</v>
@@ -3588,13 +3582,13 @@
         <v>676055</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>661</v>
@@ -3603,13 +3597,13 @@
         <v>703189</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>1307</v>
@@ -3618,13 +3612,13 @@
         <v>1379244</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3633,13 @@
         <v>681863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15" s="7">
         <v>666</v>
@@ -3654,13 +3648,13 @@
         <v>709574</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M15" s="7">
         <v>1317</v>
@@ -3669,13 +3663,13 @@
         <v>1391437</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3713,7 +3707,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3728,7 +3722,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3737,13 @@
         <v>10774</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3758,13 +3752,13 @@
         <v>2300</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -3773,19 +3767,19 @@
         <v>13073</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>540</v>
@@ -3794,13 +3788,13 @@
         <v>603843</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H18" s="7">
         <v>536</v>
@@ -3809,13 +3803,13 @@
         <v>611964</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>1076</v>
@@ -3824,13 +3818,13 @@
         <v>1215807</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3839,13 @@
         <v>614617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="7">
         <v>538</v>
@@ -3860,13 +3854,13 @@
         <v>614264</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M19" s="7">
         <v>1086</v>
@@ -3875,18 +3869,18 @@
         <v>1228880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3904,7 +3898,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3919,7 +3913,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3934,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3943,13 @@
         <v>4101</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3970,7 +3964,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -3979,19 +3973,19 @@
         <v>4101</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
         <v>389</v>
@@ -4000,13 +3994,13 @@
         <v>425328</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H22" s="7">
         <v>406</v>
@@ -4015,13 +4009,13 @@
         <v>447800</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M22" s="7">
         <v>795</v>
@@ -4030,13 +4024,13 @@
         <v>873128</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4045,13 @@
         <v>429429</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H23" s="7">
         <v>406</v>
@@ -4066,13 +4060,13 @@
         <v>447800</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M23" s="7">
         <v>799</v>
@@ -4081,18 +4075,18 @@
         <v>877229</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4125,7 +4119,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4140,7 +4134,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4149,13 @@
         <v>6388</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -4170,13 +4164,13 @@
         <v>11782</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -4185,19 +4179,19 @@
         <v>18170</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>499</v>
@@ -4206,13 +4200,13 @@
         <v>553249</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>683</v>
@@ -4221,13 +4215,13 @@
         <v>731193</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="M26" s="7">
         <v>1182</v>
@@ -4236,13 +4230,13 @@
         <v>1284442</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4251,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7">
         <v>694</v>
@@ -4272,13 +4266,13 @@
         <v>742975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M27" s="7">
         <v>1198</v>
@@ -4287,13 +4281,13 @@
         <v>1302612</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4355,13 @@
         <v>32790</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -4376,13 +4370,13 @@
         <v>21454</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
@@ -4391,19 +4385,19 @@
         <v>54245</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
         <v>3181</v>
@@ -4412,13 +4406,13 @@
         <v>3393989</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="H30" s="7">
         <v>3277</v>
@@ -4427,28 +4421,28 @@
         <v>3533644</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M30" s="7">
         <v>6458</v>
       </c>
       <c r="N30" s="7">
-        <v>6927632</v>
+        <v>6927633</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>225</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4457,13 @@
         <v>3426779</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H31" s="7">
         <v>3296</v>
@@ -4478,33 +4472,33 @@
         <v>3555098</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M31" s="7">
         <v>6505</v>
       </c>
       <c r="N31" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4526,7 +4520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D003F344-3F0C-47DF-9D90-868F60DE515B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F181FEB9-8899-4D90-9350-1B85250039F9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4543,7 +4537,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4656,7 +4650,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4671,7 +4665,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4686,7 +4680,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4695,13 @@
         <v>2337</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4716,13 +4710,13 @@
         <v>1936</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4731,19 +4725,19 @@
         <v>4274</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>391</v>
@@ -4752,13 +4746,13 @@
         <v>417126</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>402</v>
@@ -4767,13 +4761,13 @@
         <v>393819</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>793</v>
@@ -4782,13 +4776,13 @@
         <v>810944</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4797,13 @@
         <v>419463</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>404</v>
@@ -4818,13 +4812,13 @@
         <v>395755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>797</v>
@@ -4833,18 +4827,18 @@
         <v>815218</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4862,7 +4856,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4877,7 +4871,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4892,7 +4886,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4901,13 @@
         <v>5876</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4922,13 +4916,13 @@
         <v>887</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -4937,19 +4931,19 @@
         <v>6763</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>562</v>
@@ -4961,10 +4955,10 @@
         <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>578</v>
@@ -4973,13 +4967,13 @@
         <v>562657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
         <v>1140</v>
@@ -4988,13 +4982,13 @@
         <v>1147277</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5003,13 @@
         <v>590496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7">
         <v>579</v>
@@ -5024,13 +5018,13 @@
         <v>563544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M11" s="7">
         <v>1146</v>
@@ -5039,18 +5033,18 @@
         <v>1154040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5068,7 +5062,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5083,7 +5077,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5098,7 +5092,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5107,13 @@
         <v>4821</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -5128,13 +5122,13 @@
         <v>6489</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -5143,19 +5137,19 @@
         <v>11310</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>243</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>633</v>
@@ -5164,13 +5158,13 @@
         <v>664276</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
         <v>659</v>
@@ -5179,13 +5173,13 @@
         <v>654897</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>1292</v>
@@ -5194,13 +5188,13 @@
         <v>1319173</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5209,13 @@
         <v>669097</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15" s="7">
         <v>665</v>
@@ -5230,13 +5224,13 @@
         <v>661386</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M15" s="7">
         <v>1303</v>
@@ -5245,13 +5239,13 @@
         <v>1330483</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,7 +5268,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5289,7 +5283,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5304,7 +5298,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5313,13 @@
         <v>9009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5334,13 +5328,13 @@
         <v>5904</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -5349,19 +5343,19 @@
         <v>14914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>573</v>
@@ -5370,13 +5364,13 @@
         <v>637039</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="H18" s="7">
         <v>597</v>
@@ -5385,28 +5379,28 @@
         <v>643173</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="M18" s="7">
         <v>1170</v>
       </c>
       <c r="N18" s="7">
-        <v>1280211</v>
+        <v>1280212</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,13 +5415,13 @@
         <v>646048</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="7">
         <v>602</v>
@@ -5436,33 +5430,33 @@
         <v>649077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5480,7 +5474,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5495,7 +5489,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5510,7 +5504,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5519,13 @@
         <v>3377</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5540,13 +5534,13 @@
         <v>4147</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>103</v>
+        <v>271</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5555,19 +5549,19 @@
         <v>7523</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>273</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>264</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
         <v>421</v>
@@ -5576,13 +5570,13 @@
         <v>474541</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="H22" s="7">
         <v>430</v>
@@ -5591,13 +5585,13 @@
         <v>492702</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="M22" s="7">
         <v>851</v>
@@ -5606,13 +5600,13 @@
         <v>967244</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>269</v>
+        <v>49</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5621,13 @@
         <v>477918</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -5642,13 +5636,13 @@
         <v>496849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M23" s="7">
         <v>857</v>
@@ -5657,18 +5651,18 @@
         <v>974767</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5686,7 +5680,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5701,7 +5695,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5716,7 +5710,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5725,13 @@
         <v>6110</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -5746,13 +5740,13 @@
         <v>14393</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -5761,19 +5755,19 @@
         <v>20503</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>620</v>
@@ -5782,13 +5776,13 @@
         <v>585218</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>643</v>
@@ -5797,13 +5791,13 @@
         <v>763538</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="M26" s="7">
         <v>1263</v>
@@ -5812,13 +5806,13 @@
         <v>1348756</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>85</v>
+        <v>283</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>256</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +5827,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -5848,13 +5842,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -5863,13 +5857,13 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5931,13 @@
         <v>31531</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>23</v>
+        <v>284</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -5952,13 +5946,13 @@
         <v>33756</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>119</v>
+        <v>286</v>
       </c>
       <c r="M29" s="7">
         <v>60</v>
@@ -5967,19 +5961,19 @@
         <v>65287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>284</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>285</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
         <v>3200</v>
@@ -5988,13 +5982,13 @@
         <v>3362819</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>288</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H30" s="7">
         <v>3309</v>
@@ -6003,13 +5997,13 @@
         <v>3510786</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>128</v>
+        <v>290</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="M30" s="7">
         <v>6509</v>
@@ -6018,13 +6012,13 @@
         <v>6873605</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>290</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,13 +6033,13 @@
         <v>3394350</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H31" s="7">
         <v>3338</v>
@@ -6054,13 +6048,13 @@
         <v>3544542</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M31" s="7">
         <v>6569</v>
@@ -6069,18 +6063,18 @@
         <v>6938892</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -6102,7 +6096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7B7249-23C4-47FE-9A7A-7AADB5D2172A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0673177C-D54C-4851-9E84-67ED8CB59002}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6119,7 +6113,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6226,13 +6220,13 @@
         <v>377679</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" s="7">
         <v>207</v>
@@ -6241,13 +6235,13 @@
         <v>354957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M4" s="7">
         <v>379</v>
@@ -6256,13 +6250,13 @@
         <v>732636</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,7 +6277,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6298,7 +6292,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6313,13 +6307,13 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -6334,7 +6328,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6349,7 +6343,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6364,7 +6358,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +6373,13 @@
         <v>377679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>207</v>
@@ -6394,13 +6388,13 @@
         <v>354957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -6409,18 +6403,18 @@
         <v>732636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6432,13 +6426,13 @@
         <v>428396</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>461</v>
@@ -6447,13 +6441,13 @@
         <v>499215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M8" s="7">
         <v>763</v>
@@ -6462,13 +6456,13 @@
         <v>927611</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>296</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,7 +6498,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6519,13 +6513,13 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>297</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -6555,7 +6549,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6570,7 +6564,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>297</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6579,13 @@
         <v>428396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7">
         <v>461</v>
@@ -6600,13 +6594,13 @@
         <v>499215</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M11" s="7">
         <v>763</v>
@@ -6615,18 +6609,18 @@
         <v>927611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6638,13 +6632,13 @@
         <v>557252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" s="7">
         <v>848</v>
@@ -6653,13 +6647,13 @@
         <v>610447</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M12" s="7">
         <v>1394</v>
@@ -6668,13 +6662,13 @@
         <v>1167699</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,7 +6689,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6710,7 +6704,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6725,13 +6719,13 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -6746,7 +6740,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6761,7 +6755,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6776,7 +6770,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6785,13 @@
         <v>557252</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15" s="7">
         <v>848</v>
@@ -6806,13 +6800,13 @@
         <v>610447</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M15" s="7">
         <v>1394</v>
@@ -6821,13 +6815,13 @@
         <v>1167699</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,13 +6838,13 @@
         <v>723990</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
         <v>1141</v>
@@ -6859,13 +6853,13 @@
         <v>747261</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M16" s="7">
         <v>1806</v>
@@ -6874,13 +6868,13 @@
         <v>1471252</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,7 +6895,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6916,7 +6910,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6931,13 +6925,13 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -6952,7 +6946,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6967,7 +6961,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6982,7 +6976,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +6991,13 @@
         <v>723990</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="7">
         <v>1141</v>
@@ -7012,13 +7006,13 @@
         <v>747261</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M19" s="7">
         <v>1806</v>
@@ -7027,18 +7021,18 @@
         <v>1471252</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7050,13 +7044,13 @@
         <v>600157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H20" s="7">
         <v>1002</v>
@@ -7065,13 +7059,13 @@
         <v>597063</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M20" s="7">
         <v>1665</v>
@@ -7080,13 +7074,13 @@
         <v>1197220</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,7 +7101,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7137,13 +7131,13 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -7158,7 +7152,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7188,7 +7182,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7197,13 @@
         <v>600157</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H23" s="7">
         <v>1002</v>
@@ -7218,13 +7212,13 @@
         <v>597063</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M23" s="7">
         <v>1665</v>
@@ -7233,18 +7227,18 @@
         <v>1197220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7256,13 +7250,13 @@
         <v>697754</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H24" s="7">
         <v>1708</v>
@@ -7271,13 +7265,13 @@
         <v>1026637</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M24" s="7">
         <v>2736</v>
@@ -7286,13 +7280,13 @@
         <v>1724392</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,28 +7322,28 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -7379,22 +7373,22 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7403,13 @@
         <v>697754</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7">
         <v>1708</v>
@@ -7424,13 +7418,13 @@
         <v>1026637</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M27" s="7">
         <v>2736</v>
@@ -7439,13 +7433,13 @@
         <v>1724392</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,13 +7456,13 @@
         <v>3385228</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H28" s="7">
         <v>5367</v>
@@ -7477,13 +7471,13 @@
         <v>3835581</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M28" s="7">
         <v>8743</v>
@@ -7492,13 +7486,13 @@
         <v>7220809</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,7 +7528,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7549,13 +7543,13 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -7585,7 +7579,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -7600,7 +7594,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,13 +7609,13 @@
         <v>3385228</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H31" s="7">
         <v>5367</v>
@@ -7630,13 +7624,13 @@
         <v>3835581</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M31" s="7">
         <v>8743</v>
@@ -7645,18 +7639,18 @@
         <v>7220809</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1425-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1223522B-4F4E-4B8D-B8BB-877A8C76CEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8038C495-BFA9-499F-AD18-0F8C0B6F1C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A628378-0C14-455F-98E6-E1199DB05546}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F8A0E75-6218-495F-9F04-404659E9AEF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="314">
   <si>
     <t>Población con diagnóstico de otros problemas mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -101,7 +101,7 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,71%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -125,7 +125,7 @@
     <t>99,37%</t>
   </si>
   <si>
-    <t>98,29%</t>
+    <t>98,33%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -158,790 +158,814 @@
     <t>0,25%</t>
   </si>
   <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>97,75%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>98,63%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
     <t>99,89%</t>
   </si>
   <si>
     <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
   </si>
   <si>
     <t>99,94%</t>
@@ -1368,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC98940-B173-486B-A7DD-EAC0AF526662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E41188-0E93-4F7F-A9F0-8765D7B376CB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1910,7 +1934,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1925,7 +1949,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1955,10 +1979,10 @@
         <v>9233</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>57</v>
@@ -2012,7 +2036,7 @@
         <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
         <v>654</v>
@@ -2021,13 +2045,13 @@
         <v>685743</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>1259</v>
@@ -2036,13 +2060,13 @@
         <v>1315178</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,7 +2122,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2116,7 +2140,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2161,13 +2185,13 @@
         <v>5153</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2176,13 +2200,13 @@
         <v>4756</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -2191,13 +2215,13 @@
         <v>9909</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,10 +2269,10 @@
         <v>88</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,7 +2328,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2322,7 +2346,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2337,7 +2361,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2352,7 +2376,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,13 +2391,13 @@
         <v>6898</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2382,13 +2406,13 @@
         <v>4759</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -2397,13 +2421,13 @@
         <v>11657</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,13 +2442,13 @@
         <v>379812</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H22" s="7">
         <v>391</v>
@@ -2433,13 +2457,13 @@
         <v>399227</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>776</v>
@@ -2448,13 +2472,13 @@
         <v>779039</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,7 +2534,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2528,7 +2552,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2543,7 +2567,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2606,10 +2630,10 @@
         <v>120</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2648,13 @@
         <v>488769</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>646</v>
@@ -2639,13 +2663,13 @@
         <v>661007</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>1154</v>
@@ -2654,13 +2678,13 @@
         <v>1149776</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,7 +2758,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2749,7 +2773,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2764,7 +2788,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,13 +2803,13 @@
         <v>40732</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -2794,13 +2818,13 @@
         <v>36848</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M29" s="7">
         <v>77</v>
@@ -2809,13 +2833,13 @@
         <v>77580</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,16 +2851,16 @@
         <v>3173</v>
       </c>
       <c r="D30" s="7">
-        <v>3235812</v>
+        <v>3235811</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H30" s="7">
         <v>3261</v>
@@ -2845,13 +2869,13 @@
         <v>3342350</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="M30" s="7">
         <v>6434</v>
@@ -2860,13 +2884,13 @@
         <v>6578161</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,7 +2902,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>32</v>
@@ -2922,7 +2946,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2944,7 +2968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF113F6-6DD3-403E-BC3A-1E0DF1592552}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C627A1A-1DD5-422D-8424-98FAB176A599}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2961,7 +2985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3074,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3089,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3104,7 +3128,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3143,13 @@
         <v>2808</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3140,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3155,7 +3179,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3194,13 @@
         <v>451338</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>421</v>
@@ -3188,7 +3212,7 @@
         <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>32</v>
@@ -3200,10 +3224,10 @@
         <v>881568</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -3280,7 +3304,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3295,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3325,13 +3349,13 @@
         <v>2913</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3346,7 +3370,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -3355,13 +3379,13 @@
         <v>3900</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3400,13 @@
         <v>684174</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>570</v>
@@ -3391,10 +3415,10 @@
         <v>609267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -3406,10 +3430,10 @@
         <v>1293442</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>172</v>
@@ -3486,7 +3510,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3501,7 +3525,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3534,10 +3558,10 @@
         <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3546,13 +3570,13 @@
         <v>6385</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3561,13 +3585,13 @@
         <v>12193</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3621,13 @@
         <v>703189</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>1307</v>
@@ -3612,13 +3636,13 @@
         <v>1379244</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,7 +3698,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3692,7 +3716,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3707,22 +3731,22 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3761,13 @@
         <v>10774</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3752,13 +3776,13 @@
         <v>2300</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -3767,13 +3791,13 @@
         <v>13073</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3812,13 @@
         <v>603843</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H18" s="7">
         <v>536</v>
@@ -3803,10 +3827,10 @@
         <v>611964</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>197</v>
+        <v>51</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>26</v>
@@ -3818,13 +3842,13 @@
         <v>1215807</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,7 +3904,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3898,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3913,7 +3937,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3928,7 +3952,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3967,13 @@
         <v>4101</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3964,7 +3988,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -3973,13 +3997,13 @@
         <v>4101</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +4018,13 @@
         <v>425328</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H22" s="7">
         <v>406</v>
@@ -4012,7 +4036,7 @@
         <v>26</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>32</v>
@@ -4024,13 +4048,13 @@
         <v>873128</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,7 +4110,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4119,7 +4143,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4149,13 +4173,13 @@
         <v>6388</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -4164,13 +4188,13 @@
         <v>11782</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -4179,13 +4203,13 @@
         <v>18170</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4224,13 @@
         <v>553249</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="H26" s="7">
         <v>683</v>
@@ -4215,13 +4239,13 @@
         <v>731193</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>1182</v>
@@ -4230,13 +4254,13 @@
         <v>1284442</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,7 +4334,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4325,7 +4349,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4340,7 +4364,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4379,13 @@
         <v>32790</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -4370,13 +4394,13 @@
         <v>21454</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
@@ -4385,13 +4409,13 @@
         <v>54245</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,10 +4433,10 @@
         <v>88</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="H30" s="7">
         <v>3277</v>
@@ -4421,28 +4445,28 @@
         <v>3533644</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="M30" s="7">
         <v>6458</v>
       </c>
       <c r="N30" s="7">
-        <v>6927633</v>
+        <v>6927632</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>72</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,7 +4508,7 @@
         <v>6505</v>
       </c>
       <c r="N31" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>32</v>
@@ -4498,7 +4522,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4520,7 +4544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F181FEB9-8899-4D90-9350-1B85250039F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661A5B69-594A-4CED-9AC3-B1131DB69B11}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4537,7 +4561,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4650,7 +4674,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4665,7 +4689,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4680,7 +4704,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4719,13 @@
         <v>2337</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4710,13 +4734,13 @@
         <v>1936</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4725,13 +4749,13 @@
         <v>4274</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,10 +4770,10 @@
         <v>417126</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -4761,10 +4785,10 @@
         <v>393819</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>241</v>
+        <v>140</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -4776,13 +4800,13 @@
         <v>810944</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,7 +4880,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4871,7 +4895,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4886,7 +4910,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,10 +4928,10 @@
         <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4922,7 +4946,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -4931,13 +4955,13 @@
         <v>6763</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4976,13 @@
         <v>584620</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>578</v>
@@ -4967,10 +4991,10 @@
         <v>562657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -4982,13 +5006,13 @@
         <v>1147277</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,7 +5086,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5077,7 +5101,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5107,13 +5131,13 @@
         <v>4821</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -5122,13 +5146,13 @@
         <v>6489</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -5140,10 +5164,10 @@
         <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5182,13 @@
         <v>664276</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>659</v>
@@ -5173,13 +5197,13 @@
         <v>654897</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
         <v>1292</v>
@@ -5191,10 +5215,10 @@
         <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,7 +5274,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5268,7 +5292,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5313,13 +5337,13 @@
         <v>9009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5328,13 +5352,13 @@
         <v>5904</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -5343,13 +5367,13 @@
         <v>14914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5388,13 @@
         <v>637039</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H18" s="7">
         <v>597</v>
@@ -5379,28 +5403,28 @@
         <v>643173</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M18" s="7">
         <v>1170</v>
       </c>
       <c r="N18" s="7">
-        <v>1280212</v>
+        <v>1280211</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,7 +5466,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>32</v>
@@ -5456,7 +5480,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5474,7 +5498,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5489,7 +5513,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5504,7 +5528,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,13 +5543,13 @@
         <v>3377</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5534,13 +5558,13 @@
         <v>4147</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5549,13 +5573,13 @@
         <v>7523</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5594,13 @@
         <v>474541</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H22" s="7">
         <v>430</v>
@@ -5585,13 +5609,13 @@
         <v>492702</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M22" s="7">
         <v>851</v>
@@ -5600,13 +5624,13 @@
         <v>967244</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,7 +5686,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5680,7 +5704,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5695,7 +5719,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5725,13 +5749,13 @@
         <v>6110</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>193</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -5740,13 +5764,13 @@
         <v>14393</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -5755,13 +5779,13 @@
         <v>20503</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5800,13 @@
         <v>585218</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>199</v>
+        <v>287</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>643</v>
@@ -5791,13 +5815,13 @@
         <v>763538</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>159</v>
+        <v>288</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="M26" s="7">
         <v>1263</v>
@@ -5806,13 +5830,13 @@
         <v>1348756</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>88</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,7 +5910,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5901,7 +5925,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5916,7 +5940,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5955,13 @@
         <v>31531</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -5946,13 +5970,13 @@
         <v>33756</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M29" s="7">
         <v>60</v>
@@ -5961,13 +5985,13 @@
         <v>65287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>294</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,13 +6006,13 @@
         <v>3362819</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>288</v>
+        <v>145</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H30" s="7">
         <v>3309</v>
@@ -5997,13 +6021,13 @@
         <v>3510786</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="M30" s="7">
         <v>6509</v>
@@ -6012,13 +6036,13 @@
         <v>6873605</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>196</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,7 +6098,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -6096,7 +6120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0673177C-D54C-4851-9E84-67ED8CB59002}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DBF7F8-A9B3-4AD7-BA52-57B6BD5D6B6B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6113,7 +6137,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6223,7 +6247,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>32</v>
@@ -6253,7 +6277,7 @@
         <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>32</v>
@@ -6277,7 +6301,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6292,7 +6316,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6307,7 +6331,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,7 +6352,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6343,7 +6367,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6358,7 +6382,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,7 +6468,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>32</v>
@@ -6498,7 +6522,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6549,7 +6573,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6635,7 +6659,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>87</v>
+        <v>305</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>32</v>
@@ -6650,7 +6674,7 @@
         <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>32</v>
@@ -6665,7 +6689,7 @@
         <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>32</v>
@@ -6689,7 +6713,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6704,7 +6728,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6719,7 +6743,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,7 +6764,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6755,7 +6779,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6770,7 +6794,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,7 +6850,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6841,7 +6865,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>32</v>
@@ -6856,7 +6880,7 @@
         <v>26</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>32</v>
@@ -6865,13 +6889,13 @@
         <v>1806</v>
       </c>
       <c r="N16" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>32</v>
@@ -6895,7 +6919,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6910,7 +6934,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>59</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6925,7 +6949,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,7 +6970,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6961,7 +6985,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>237</v>
+        <v>59</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6976,7 +7000,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,7 +7042,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>32</v>
@@ -7032,7 +7056,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7047,7 +7071,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>32</v>
@@ -7077,7 +7101,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>32</v>
@@ -7101,7 +7125,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -7131,7 +7155,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,7 +7176,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7182,7 +7206,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,7 +7262,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7247,7 +7271,7 @@
         <v>1028</v>
       </c>
       <c r="D24" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>26</v>
@@ -7268,7 +7292,7 @@
         <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>32</v>
@@ -7283,7 +7307,7 @@
         <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>299</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>32</v>
@@ -7322,7 +7346,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7337,7 +7361,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>300</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,7 +7397,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7388,7 +7412,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,7 +7424,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>32</v>
@@ -7459,7 +7483,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>32</v>
@@ -7474,7 +7498,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>32</v>
@@ -7483,13 +7507,13 @@
         <v>8743</v>
       </c>
       <c r="N28" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>32</v>
@@ -7513,7 +7537,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7528,7 +7552,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7543,7 +7567,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,7 +7588,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -7579,7 +7603,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -7594,7 +7618,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,7 +7660,7 @@
         <v>8743</v>
       </c>
       <c r="N31" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>32</v>
@@ -7650,7 +7674,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1425-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AF866F4-0088-4C6E-9A5B-C4119F85D231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37616EF1-560A-4032-A8ED-F4C903E55130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{583D2CE5-8C45-4BFC-BBB9-6E7F8A5BCF2E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{05BEA56D-B0D8-4DC7-8EB4-F0B237EDDCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="317">
   <si>
     <t>Población con diagnóstico de otros problemas mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -133,7 +133,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -190,7 +190,7 @@
     <t>99,68%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,45%</t>
@@ -235,7 +235,7 @@
     <t>99,45%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -292,7 +292,7 @@
     <t>99,51%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,78%</t>
@@ -349,532 +349,643 @@
     <t>99,17%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
     <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
   </si>
   <si>
     <t>99,3%</t>
@@ -1289,8 +1400,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011222E0-0BE2-45FF-A87F-CE0420633F70}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5C82E3-7BBF-4315-B055-7D24662B060C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2182,49 +2293,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>13697</v>
+        <v>6578</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>15835</v>
+        <v>4413</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N19" s="7">
-        <v>29532</v>
+        <v>10991</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,49 +2344,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>508</v>
+        <v>296</v>
       </c>
       <c r="D20" s="7">
-        <v>488769</v>
+        <v>286005</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
-        <v>646</v>
+        <v>366</v>
       </c>
       <c r="I20" s="7">
-        <v>661007</v>
+        <v>338521</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
-        <v>1154</v>
+        <v>662</v>
       </c>
       <c r="N20" s="7">
-        <v>1149776</v>
+        <v>624526</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,10 +2395,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2299,10 +2410,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2314,10 +2425,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2331,55 +2442,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>40732</v>
+        <v>7119</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>36848</v>
+        <v>11422</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="N22" s="7">
-        <v>77580</v>
+        <v>18541</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,49 +2499,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3173</v>
+        <v>212</v>
       </c>
       <c r="D23" s="7">
-        <v>3235812</v>
+        <v>202764</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
-        <v>3261</v>
+        <v>280</v>
       </c>
       <c r="I23" s="7">
-        <v>3342350</v>
+        <v>322486</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>6434</v>
+        <v>492</v>
       </c>
       <c r="N23" s="7">
-        <v>6578160</v>
+        <v>525250</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,63 +2550,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>41</v>
+      </c>
+      <c r="D25" s="7">
+        <v>40732</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
+        <v>36</v>
+      </c>
+      <c r="I25" s="7">
+        <v>36848</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>77</v>
+      </c>
+      <c r="N25" s="7">
+        <v>77580</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3173</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3235811</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3261</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3342349</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6434</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6578161</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>134</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2508,8 +2775,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9548D6B9-967D-4DA6-96E2-4A9CF38D2A4B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B805BA77-54CB-4172-81B5-0D8E66F03A1E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2525,7 +2792,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2632,13 +2899,13 @@
         <v>2808</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2650,10 +2917,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2668,7 +2935,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,10 +2950,10 @@
         <v>451338</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -2701,7 +2968,7 @@
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -2716,7 +2983,7 @@
         <v>49</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>29</v>
@@ -2787,13 +3054,13 @@
         <v>2913</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2802,13 +3069,13 @@
         <v>988</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2817,10 +3084,10 @@
         <v>3900</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>86</v>
@@ -2838,10 +3105,10 @@
         <v>684174</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>43</v>
@@ -2853,10 +3120,10 @@
         <v>609267</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -2868,13 +3135,13 @@
         <v>1293442</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +3209,13 @@
         <v>5808</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -2957,13 +3224,13 @@
         <v>6385</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2972,13 +3239,13 @@
         <v>12193</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +3260,13 @@
         <v>676055</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="H11" s="7">
         <v>661</v>
@@ -3008,13 +3275,13 @@
         <v>703189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>1307</v>
@@ -3023,13 +3290,13 @@
         <v>1379244</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3364,13 @@
         <v>10774</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3118,7 +3385,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3127,13 +3394,13 @@
         <v>13073</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3415,13 @@
         <v>603843</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
         <v>536</v>
@@ -3166,7 +3433,7 @@
         <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -3178,13 +3445,13 @@
         <v>1215807</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3519,13 @@
         <v>4101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3270,10 +3537,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3282,13 +3549,13 @@
         <v>4101</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3570,13 @@
         <v>425328</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>406</v>
@@ -3321,7 +3588,7 @@
         <v>23</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -3333,13 +3600,13 @@
         <v>873128</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,49 +3668,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>6388</v>
+        <v>2008</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="H19" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>11782</v>
+        <v>2007</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>18170</v>
+        <v>4015</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,49 +3719,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>499</v>
+        <v>280</v>
       </c>
       <c r="D20" s="7">
-        <v>553249</v>
+        <v>307778</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="H20" s="7">
-        <v>683</v>
+        <v>342</v>
       </c>
       <c r="I20" s="7">
-        <v>731193</v>
+        <v>351989</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="M20" s="7">
-        <v>1182</v>
+        <v>622</v>
       </c>
       <c r="N20" s="7">
-        <v>1284442</v>
+        <v>659767</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,10 +3770,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3518,10 +3785,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3533,10 +3800,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3550,55 +3817,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>32790</v>
+        <v>4380</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="H22" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7">
-        <v>21454</v>
+        <v>9775</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="M22" s="7">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="N22" s="7">
-        <v>54245</v>
+        <v>14155</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,49 +3874,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3181</v>
+        <v>219</v>
       </c>
       <c r="D23" s="7">
-        <v>3393989</v>
+        <v>245471</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="H23" s="7">
-        <v>3277</v>
+        <v>341</v>
       </c>
       <c r="I23" s="7">
-        <v>3533644</v>
+        <v>379204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="M23" s="7">
-        <v>6458</v>
+        <v>560</v>
       </c>
       <c r="N23" s="7">
-        <v>6927632</v>
+        <v>624675</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,63 +3925,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>28</v>
+      </c>
+      <c r="D25" s="7">
+        <v>32790</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H25" s="7">
+        <v>19</v>
+      </c>
+      <c r="I25" s="7">
+        <v>21454</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M25" s="7">
+        <v>47</v>
+      </c>
+      <c r="N25" s="7">
+        <v>54245</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3181</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3393989</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3277</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3533644</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6458</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6927632</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3555098</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6505</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6981877</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>134</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3727,8 +4150,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB0655F-3D22-43A4-876F-AED182D39605}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5FE308-636D-4D32-934C-955D15D0302D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3744,7 +4167,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3851,13 +4274,13 @@
         <v>2337</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3881,13 +4304,13 @@
         <v>4274</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,10 +4325,10 @@
         <v>417126</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3932,13 +4355,13 @@
         <v>810944</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,10 +4432,10 @@
         <v>55</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4021,13 +4444,13 @@
         <v>887</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4036,10 +4459,10 @@
         <v>6763</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>40</v>
@@ -4060,10 +4483,10 @@
         <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>578</v>
@@ -4072,10 +4495,10 @@
         <v>562657</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -4087,13 +4510,13 @@
         <v>1147277</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4584,13 @@
         <v>4821</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>89</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4176,13 +4599,13 @@
         <v>6489</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4191,13 +4614,13 @@
         <v>11310</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,10 +4635,10 @@
         <v>664276</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>99</v>
@@ -4227,10 +4650,10 @@
         <v>654897</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>77</v>
@@ -4242,13 +4665,13 @@
         <v>1319173</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,10 +4739,10 @@
         <v>9009</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>93</v>
@@ -4331,13 +4754,13 @@
         <v>5904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -4346,13 +4769,13 @@
         <v>14914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4790,13 @@
         <v>637039</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>597</v>
@@ -4382,10 +4805,10 @@
         <v>643173</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>49</v>
@@ -4397,10 +4820,10 @@
         <v>1280211</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>47</v>
@@ -4471,13 +4894,13 @@
         <v>3377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4489,10 +4912,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4501,13 +4924,13 @@
         <v>7523</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4945,13 @@
         <v>474541</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>430</v>
@@ -4540,10 +4963,10 @@
         <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>851</v>
@@ -4552,13 +4975,13 @@
         <v>967244</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,49 +5043,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2005</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4945</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M19" s="7">
         <v>7</v>
       </c>
-      <c r="D19" s="7">
-        <v>6110</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>14393</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="M19" s="7">
-        <v>19</v>
-      </c>
       <c r="N19" s="7">
-        <v>20503</v>
+        <v>6951</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,49 +5094,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>620</v>
+        <v>323</v>
       </c>
       <c r="D20" s="7">
-        <v>585218</v>
+        <v>332325</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>23</v>
       </c>
       <c r="H20" s="7">
-        <v>643</v>
+        <v>349</v>
       </c>
       <c r="I20" s="7">
-        <v>763538</v>
+        <v>372817</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>196</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M20" s="7">
+        <v>672</v>
+      </c>
+      <c r="N20" s="7">
+        <v>705141</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="M20" s="7">
-        <v>1263</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1348756</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,10 +5145,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4737,10 +5160,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4752,10 +5175,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4769,55 +5192,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>31531</v>
+        <v>4105</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>19</v>
+        <v>297</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="H22" s="7">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>33756</v>
+        <v>9447</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>299</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="M22" s="7">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="N22" s="7">
-        <v>65287</v>
+        <v>13552</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,49 +5249,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3200</v>
+        <v>297</v>
       </c>
       <c r="D23" s="7">
-        <v>3362819</v>
+        <v>252893</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>28</v>
+        <v>303</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
-        <v>3309</v>
+        <v>294</v>
       </c>
       <c r="I23" s="7">
-        <v>3510786</v>
+        <v>390722</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>305</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>306</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
-        <v>6509</v>
+        <v>591</v>
       </c>
       <c r="N23" s="7">
-        <v>6873605</v>
+        <v>643615</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>277</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,63 +5300,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>31</v>
+      </c>
+      <c r="D25" s="7">
+        <v>31531</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H25" s="7">
+        <v>29</v>
+      </c>
+      <c r="I25" s="7">
+        <v>33756</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M25" s="7">
+        <v>60</v>
+      </c>
+      <c r="N25" s="7">
+        <v>65287</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3200</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3362819</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3309</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3510786</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6509</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6873605</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>134</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
